--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -52,6 +52,9 @@
     <t>ieee</t>
   </si>
   <si>
+    <t>Khushboo Pal</t>
+  </si>
+  <si>
     <t>Lakshya.garg2004@gmail.com</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>rigvedbhargav@gmail.com</t>
+  </si>
+  <si>
+    <t>khushboopal98155@gmail.com</t>
   </si>
   <si>
     <t>ewennnkjnjdnkj</t>
@@ -103,6 +109,12 @@
   </si>
   <si>
     <t>Hello world</t>
+  </si>
+  <si>
+    <t>zddfddsasdsdfdsfds</t>
+  </si>
+  <si>
+    <t>knlkdslklkdslklklkn</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -502,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -513,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -524,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -535,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -546,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -557,10 +569,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -568,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -579,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -590,10 +602,10 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -601,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="4:6">
@@ -612,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="4:6">
@@ -623,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="4:6">
@@ -634,10 +646,32 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
